--- a/results/xlsx/t11_jdk9.xlsx
+++ b/results/xlsx/t11_jdk9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Desktop\BJS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Desktop\BJS\results\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2BAADA45-B28F-4845-A4E4-1EC21818B681}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B7D3D4-AFA7-4E33-986B-B35C402248A9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="t11_08012019161426_jdk9" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -977,7 +977,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2029,11 +2029,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
